--- a/Data from Paho/excels/2014/excel/2014-aug-08-cha-CHIKV-authoch-imported-cases-ew-32.xlsx
+++ b/Data from Paho/excels/2014/excel/2014-aug-08-cha-CHIKV-authoch-imported-cases-ew-32.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\chikonguniya\Data from Paho\excels\2014\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EB3B362B-235B-4306-A3CA-60091B1BF236}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19230" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="136">
   <si>
     <t>Country/Territory</t>
   </si>
@@ -428,8 +434,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +472,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -512,7 +526,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,9 +558,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,6 +610,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -753,720 +803,702 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="2" max="9" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
       <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
         <v>40</v>
       </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>33</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>34</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
       <c r="E7">
+        <v>480</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="F7">
-        <v>480</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
-        <v>4</v>
+        <v>489</v>
       </c>
       <c r="F8">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="E11">
+      <c r="D11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="E12">
+      <c r="D12">
         <v>8</v>
       </c>
+      <c r="F12">
+        <v>37.1</v>
+      </c>
       <c r="G12">
-        <v>37.1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="E14">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="E16">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
       <c r="E17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>14</v>
+        <v>5.2</v>
       </c>
       <c r="G17">
-        <v>5.2</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
       <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="E20">
+      <c r="D20">
         <v>71</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" t="s">
         <v>58</v>
       </c>
-      <c r="H20">
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
       <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="E21">
+      <c r="D21">
         <v>89</v>
       </c>
+      <c r="F21">
+        <v>515.29999999999995</v>
+      </c>
       <c r="G21">
-        <v>515.3</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" t="s">
         <v>52</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
         <v>59</v>
       </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
       <c r="H22">
-        <v>7</v>
-      </c>
-      <c r="I22">
         <v>466</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
       <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
         <v>46</v>
       </c>
-      <c r="E23">
+      <c r="D23">
         <v>14</v>
       </c>
+      <c r="F23">
+        <v>627.20000000000005</v>
+      </c>
       <c r="G23">
-        <v>627.2</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
         <v>53</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" t="s">
         <v>60</v>
       </c>
+      <c r="G24">
+        <v>19</v>
+      </c>
       <c r="H24">
-        <v>19</v>
-      </c>
-      <c r="I24">
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
       <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
         <v>48</v>
       </c>
+      <c r="D25">
+        <v>386</v>
+      </c>
       <c r="E25">
-        <v>386</v>
+        <v>17</v>
       </c>
       <c r="F25">
-        <v>17</v>
+        <v>53.7</v>
       </c>
       <c r="G25">
-        <v>53.7</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s">
         <v>36</v>
       </c>
+      <c r="C26">
+        <v>800</v>
+      </c>
       <c r="D26">
-        <v>800</v>
-      </c>
-      <c r="E26">
         <v>142</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F26" t="s">
         <v>61</v>
       </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
       <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
       <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>793</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
         <v>36</v>
       </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27">
-        <v>793</v>
-      </c>
-      <c r="G27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" t="s">
-        <v>31</v>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" t="s">
         <v>54</v>
       </c>
-      <c r="F28">
+      <c r="E28">
         <v>28</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s">
         <v>63</v>
       </c>
-      <c r="H28">
+      <c r="G28">
         <v>32</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s">
         <v>35</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
       <c r="E30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
         <v>36</v>
       </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="H31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="E32">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="H32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s">
         <v>37</v>
       </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
       <c r="E33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s">
         <v>33</v>
       </c>
+      <c r="D34">
+        <v>35</v>
+      </c>
       <c r="E34">
+        <v>59</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>35</v>
       </c>
-      <c r="F34">
-        <v>59</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
       <c r="E35">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F35">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1477,25 +1509,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="2" max="9" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -1518,7 +1543,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1541,7 +1566,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1564,7 +1589,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1587,12 +1612,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1615,7 +1640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -1626,7 +1651,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1635,7 +1660,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1658,7 +1683,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -1681,7 +1706,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -1704,7 +1729,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -1727,7 +1752,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -1750,7 +1775,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1773,7 +1798,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -1793,7 +1818,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -1813,7 +1838,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -1836,7 +1861,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -1853,7 +1878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -1876,7 +1901,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -1890,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="G19">
-        <v>149.7</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1899,7 +1924,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -1922,7 +1947,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -1942,7 +1967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -1965,7 +1990,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -1988,7 +2013,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -2011,7 +2036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -2031,7 +2056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -2054,7 +2079,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2077,7 +2102,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>114</v>
       </c>
